--- a/biology/Médecine/Liste_d'établissements_sanitaires_d'Abidjan/Liste_d'établissements_sanitaires_d'Abidjan.xlsx
+++ b/biology/Médecine/Liste_d'établissements_sanitaires_d'Abidjan/Liste_d'établissements_sanitaires_d'Abidjan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9tablissements_sanitaires_d%27Abidjan</t>
+          <t>Liste_d'établissements_sanitaires_d'Abidjan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste d'établissements sanitaires d'Abidjan concerne les formations sanitaires publiques, mais également les établissements sanitaires privés. Elle n'intègre pas les nombreux centres de tradipraticiens et de médecine traditionnelle ni les établissements anarchiques de vente de médicaments en pleine rue.
 Nota bene : les établissements se trouvant ici ne se sont pas forcement inscrits sur internet et ce ne sont pas tous les établissements de santé qui se trouvent sur ce site.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9tablissements_sanitaires_d%27Abidjan</t>
+          <t>Liste_d'établissements_sanitaires_d'Abidjan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hôpitaux publics</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centre hospitalier universitaire de Cocody (CHU de Cocody)
 Centre hospitalier universitaire de Treichville (CHU de Treichville)
@@ -521,7 +535,7 @@
 Hôpital militaire d'Abidjan (HMA)
 Centre national de transfusion sanguine (Abidjan)
 Centre de santé communautaire
-Centre de santé El Rapha[1]
+Centre de santé El Rapha
 Centre de santé urbain à base communautaire d'Abobo
 Centre Éducation Sanitaire
 Centre médical le CEGOS
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9tablissements_sanitaires_d%27Abidjan</t>
+          <t>Liste_d'établissements_sanitaires_d'Abidjan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Établissements privés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Polyclinique internationale Sainte Anne-Marie (PISAM)
 Polyclinique des Deux-Plateaux
